--- a/Platform.xlsx
+++ b/Platform.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fengs\Documents\Reyna\KingsIsle\New Project 1\New Project 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reyna.feng/Documents/Reyna/Wimo/Games_RevenueModeler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209402FD-3DF9-40BE-943C-68861AFB92D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573712E7-D495-6C4E-AD0F-DC88D52BCAF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -425,12 +425,12 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,7 +441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -449,10 +449,10 @@
         <v>0.7</v>
       </c>
       <c r="C2" s="2">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -460,7 +460,7 @@
         <v>0.7</v>
       </c>
       <c r="C3" s="2">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
